--- a/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a50_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a50_reformulation.xlsx
@@ -51,7 +51,7 @@
     <t>num quad cons</t>
   </si>
   <si>
-    <t>OPTIMAL</t>
+    <t>TIME_LIMIT</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-790.4501666393605</v>
+        <v>-411.51897100078946</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>7.896805345891741</v>
       </c>
       <c r="D2">
-        <v>50.770750035</v>
+        <v>3604.548796775</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-796.6855908813168</v>
+        <v>-411.3960477688105</v>
       </c>
       <c r="C3">
-        <v>2.853995077175629e-14</v>
+        <v>6.492730181926509</v>
       </c>
       <c r="D3">
-        <v>48.175806768</v>
+        <v>3652.929948378</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-795.4333667618575</v>
+        <v>-412.3476210996386</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>5.181024663335519</v>
       </c>
       <c r="D4">
-        <v>48.052954818</v>
+        <v>3799.723364972</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-808.2943571304374</v>
+        <v>-416.71129461895856</v>
       </c>
       <c r="C5">
-        <v>2.8130058491366133e-14</v>
+        <v>2.627468796449248</v>
       </c>
       <c r="D5">
-        <v>47.993883438</v>
+        <v>3858.943483408</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-786.6718742477501</v>
+        <v>-408.2905883517202</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>6.704542726035493</v>
       </c>
       <c r="D6">
-        <v>48.759895703</v>
+        <v>3600.528406784</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-781.4694215272531</v>
+        <v>-403.99029359095584</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>4.17639584236483</v>
       </c>
       <c r="D7">
-        <v>50.500172565</v>
+        <v>3768.484232653</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-778.6638845224827</v>
+        <v>-400.19199641565194</v>
       </c>
       <c r="C8">
-        <v>1.460024536662826e-14</v>
+        <v>1.1297632678732288</v>
       </c>
       <c r="D8">
-        <v>48.177223065</v>
+        <v>3832.915016989</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-800.5274282274553</v>
+        <v>-412.09265615224575</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>6.122608144824806</v>
       </c>
       <c r="D9">
-        <v>49.603580698</v>
+        <v>3663.325041742</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-793.5538497949096</v>
+        <v>-408.4459810048513</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>6.617595411152933</v>
       </c>
       <c r="D10">
-        <v>48.753275258</v>
+        <v>3627.94769365</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-783.4743422616683</v>
+        <v>-403.1039288610365</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>1.069073315486184</v>
       </c>
       <c r="D11">
-        <v>49.549808789</v>
+        <v>3812.042297833</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
